--- a/output/teste/df_split5.xlsx
+++ b/output/teste/df_split5.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,83 +441,83 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>433.5207499755035</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="G2">
-        <v>650.2811249632553</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H2">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="K2">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>393.8044005019047</v>
+        <v>286.7480913238156</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0277778</v>
       </c>
       <c r="G3">
-        <v>590.7066007528571</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H3">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I3">
         <v>0.49</v>
       </c>
       <c r="J3">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="K3">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>333.3011855326704</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>499.9517782990056</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H4">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="J4">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K4">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>282.2034344188766</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -564,30 +564,30 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>423.3051516283149</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H5">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I5">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>208.1255268683671</v>
+        <v>384.636049180636</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>312.1882903025506</v>
+        <v>576.954073770954</v>
       </c>
       <c r="H6">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
         <v>0.18</v>
@@ -616,36 +616,211 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>433.5207499755035</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>650.2811249632553</v>
+      </c>
+      <c r="H7">
+        <v>0.38</v>
+      </c>
+      <c r="I7">
+        <v>0.41</v>
+      </c>
+      <c r="J7">
+        <v>0.17</v>
+      </c>
+      <c r="K7">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>393.8044005019047</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>590.7066007528571</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
+      </c>
+      <c r="I8">
+        <v>0.49</v>
+      </c>
+      <c r="J8">
+        <v>0.16</v>
+      </c>
+      <c r="K8">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>333.3011855326704</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>499.9517782990056</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.4</v>
+      </c>
+      <c r="J9">
+        <v>0.19</v>
+      </c>
+      <c r="K9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>282.2034344188766</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>423.3051516283149</v>
+      </c>
+      <c r="H10">
+        <v>0.39</v>
+      </c>
+      <c r="I10">
+        <v>0.41</v>
+      </c>
+      <c r="J10">
+        <v>0.14</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>23</v>
+      </c>
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="C11">
+        <v>208.1255268683671</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>312.1882903025506</v>
+      </c>
+      <c r="H11">
+        <v>0.32</v>
+      </c>
+      <c r="I11">
+        <v>0.45</v>
+      </c>
+      <c r="J11">
+        <v>0.18</v>
+      </c>
+      <c r="K11">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C12">
         <v>165.1488800499209</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>247.7233200748814</v>
       </c>
-      <c r="H7">
+      <c r="H12">
         <v>0.4</v>
       </c>
-      <c r="I7">
+      <c r="I12">
         <v>0.48</v>
       </c>
-      <c r="J7">
+      <c r="J12">
         <v>0.2</v>
       </c>
-      <c r="K7">
+      <c r="K12">
         <v>0.4</v>
       </c>
     </row>

--- a/output/teste/df_split5.xlsx
+++ b/output/teste/df_split5.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,83 +441,83 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>334.7633794933903</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="D2">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0833334</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>502.1450692400854</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
+        <v>0.48</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
         <v>0.4</v>
-      </c>
-      <c r="J2">
-        <v>0.11</v>
-      </c>
-      <c r="K2">
-        <v>0.37</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>286.7480913238156</v>
+        <v>130.2933375268219</v>
       </c>
       <c r="D3">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0277778</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>430.1221369857234</v>
+        <v>195.4400062902328</v>
       </c>
       <c r="H3">
+        <v>0.37</v>
+      </c>
+      <c r="I3">
+        <v>0.46</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
         <v>0.33</v>
-      </c>
-      <c r="I3">
-        <v>0.49</v>
-      </c>
-      <c r="J3">
-        <v>0.12</v>
-      </c>
-      <c r="K3">
-        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>262.4045378156197</v>
+        <v>103.6774555661557</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -529,30 +529,30 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>393.6068067234295</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="H4">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I4">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J4">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K4">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>309.1354664251031</v>
+        <v>97.78916096758275</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -564,30 +564,30 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>463.7031996376547</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="H5">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I5">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="J5">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K5">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>384.636049180636</v>
+        <v>94.78573553475324</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -599,16 +599,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>576.954073770954</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="H6">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="J6">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K6">
         <v>0.39</v>
@@ -616,13 +616,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>433.5207499755035</v>
+        <v>98.71785172641819</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -634,16 +634,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>650.2811249632553</v>
+        <v>148.0767775896273</v>
       </c>
       <c r="H7">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I7">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="J7">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="K7">
         <v>0.33</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>393.8044005019047</v>
+        <v>130.7873219730109</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -669,30 +669,30 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>590.7066007528571</v>
+        <v>196.1809829595164</v>
       </c>
       <c r="H8">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I8">
         <v>0.49</v>
       </c>
       <c r="J8">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="K8">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>333.3011855326704</v>
+        <v>201.8420447128433</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -704,124 +704,299 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>499.9517782990056</v>
+        <v>302.7630670692649</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="J9">
         <v>0.19</v>
       </c>
       <c r="K9">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>282.2034344188766</v>
+        <v>294.8296768634683</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.00277778</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.00277778</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.00555556</v>
       </c>
       <c r="G10">
-        <v>423.3051516283149</v>
+        <v>442.2445152952025</v>
       </c>
       <c r="H10">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="I10">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="J10">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K10">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>208.1255268683671</v>
+        <v>349.0296502993302</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0277778</v>
       </c>
       <c r="G11">
-        <v>312.1882903025506</v>
+        <v>523.5444754489954</v>
       </c>
       <c r="H11">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I11">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>165.1488800499209</v>
+        <v>364.1653337305623</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.03055558</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03055558</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.06111116</v>
       </c>
       <c r="G12">
-        <v>247.7233200748814</v>
+        <v>546.2480005958435</v>
       </c>
       <c r="H12">
+        <v>0.38</v>
+      </c>
+      <c r="I12">
+        <v>0.43</v>
+      </c>
+      <c r="J12">
+        <v>0.11</v>
+      </c>
+      <c r="K12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>381.7906987705871</v>
+      </c>
+      <c r="D13">
+        <v>0.05833338</v>
+      </c>
+      <c r="E13">
+        <v>0.05833338</v>
+      </c>
+      <c r="F13">
+        <v>0.11666676</v>
+      </c>
+      <c r="G13">
+        <v>572.6860481558806</v>
+      </c>
+      <c r="H13">
+        <v>0.37</v>
+      </c>
+      <c r="I13">
+        <v>0.49</v>
+      </c>
+      <c r="J13">
+        <v>0.12</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>410.3627591381613</v>
+      </c>
+      <c r="D14">
+        <v>0.07777784</v>
+      </c>
+      <c r="E14">
+        <v>0.07777784</v>
+      </c>
+      <c r="F14">
+        <v>0.15555568</v>
+      </c>
+      <c r="G14">
+        <v>615.5441387072419</v>
+      </c>
+      <c r="H14">
         <v>0.4</v>
       </c>
-      <c r="I12">
+      <c r="I14">
+        <v>0.46</v>
+      </c>
+      <c r="J14">
+        <v>0.19</v>
+      </c>
+      <c r="K14">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>408.4460994869478</v>
+      </c>
+      <c r="D15">
+        <v>0.07222228</v>
+      </c>
+      <c r="E15">
+        <v>0.07222228</v>
+      </c>
+      <c r="F15">
+        <v>0.14444456</v>
+      </c>
+      <c r="G15">
+        <v>612.6691492304217</v>
+      </c>
+      <c r="H15">
+        <v>0.33</v>
+      </c>
+      <c r="I15">
+        <v>0.45</v>
+      </c>
+      <c r="J15">
+        <v>0.11</v>
+      </c>
+      <c r="K15">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>377.9573794681603</v>
+      </c>
+      <c r="D16">
+        <v>0.0555556</v>
+      </c>
+      <c r="E16">
+        <v>0.0555556</v>
+      </c>
+      <c r="F16">
+        <v>0.1111112</v>
+      </c>
+      <c r="G16">
+        <v>566.9360692022404</v>
+      </c>
+      <c r="H16">
+        <v>0.37</v>
+      </c>
+      <c r="I16">
         <v>0.48</v>
       </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>0.4</v>
+      <c r="J16">
+        <v>0.14</v>
+      </c>
+      <c r="K16">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>354.1473291618483</v>
+      </c>
+      <c r="D17">
+        <v>0.01111112</v>
+      </c>
+      <c r="E17">
+        <v>0.01111112</v>
+      </c>
+      <c r="F17">
+        <v>0.02222224</v>
+      </c>
+      <c r="G17">
+        <v>531.2209937427724</v>
+      </c>
+      <c r="H17">
+        <v>0.31</v>
+      </c>
+      <c r="I17">
+        <v>0.44</v>
+      </c>
+      <c r="J17">
+        <v>0.18</v>
+      </c>
+      <c r="K17">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split5.xlsx
+++ b/output/teste/df_split5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HOURS</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>param_E_pvt2_solar</t>
+  </si>
+  <si>
+    <t>param_E_pv3_solar</t>
   </si>
   <si>
     <t>param_P_to_charging_station1</t>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +507,11 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>24</v>
       </c>
@@ -567,13 +573,16 @@
         <v>0.12</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -635,13 +644,16 @@
         <v>0.12</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>26</v>
       </c>
@@ -703,13 +715,16 @@
         <v>0.12</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>27</v>
       </c>
@@ -771,13 +786,16 @@
         <v>0.12</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>28</v>
       </c>
@@ -839,13 +857,16 @@
         <v>0.12</v>
       </c>
       <c r="U6">
-        <v>37.63084722222222</v>
+        <v>0.12</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>29</v>
       </c>
@@ -907,13 +928,16 @@
         <v>0.12</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>30</v>
       </c>
@@ -975,13 +999,16 @@
         <v>0.12</v>
       </c>
       <c r="U8">
-        <v>99.86884722222224</v>
+        <v>0.12</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>91.43994444444448</v>
+      </c>
+      <c r="W8">
+        <v>23.15744444444445</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>31</v>
       </c>
@@ -1043,13 +1070,16 @@
         <v>0.12</v>
       </c>
       <c r="U9">
-        <v>42.14680555555557</v>
+        <v>0.12</v>
       </c>
       <c r="V9">
-        <v>160.6300972222222</v>
+        <v>89.48500000000003</v>
+      </c>
+      <c r="W9">
+        <v>122.4135000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>32</v>
       </c>
@@ -1111,13 +1141,16 @@
         <v>0.12</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V10">
+        <v>38.11500000000002</v>
+      </c>
+      <c r="W10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -1179,13 +1212,16 @@
         <v>0.12</v>
       </c>
       <c r="U11">
-        <v>28.94680555555557</v>
+        <v>0.12</v>
       </c>
       <c r="V11">
+        <v>20.66350000000001</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -1247,13 +1283,16 @@
         <v>0.12</v>
       </c>
       <c r="U12">
-        <v>104.0505277777778</v>
+        <v>0.12</v>
       </c>
       <c r="V12">
-        <v>138.9300000000001</v>
+        <v>42.35</v>
+      </c>
+      <c r="W12">
+        <v>52.40552777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -1315,13 +1354,16 @@
         <v>0.12</v>
       </c>
       <c r="U13">
-        <v>75.31012500000001</v>
+        <v>0.12</v>
       </c>
       <c r="V13">
-        <v>72.36701388888891</v>
+        <v>69.46500000000002</v>
+      </c>
+      <c r="W13">
+        <v>65.41700000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -1383,13 +1425,16 @@
         <v>0.12</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>66.00000000000004</v>
+      </c>
+      <c r="W14">
+        <v>34.73616666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>37</v>
       </c>
@@ -1451,13 +1496,16 @@
         <v>0.12</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V15">
-        <v>21.45000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>38</v>
       </c>
@@ -1519,13 +1567,16 @@
         <v>0.12</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V16">
-        <v>8.712000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>111.9891666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>39</v>
       </c>
@@ -1587,10 +1638,13 @@
         <v>0.12</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="V17">
-        <v>84.97744444444446</v>
+        <v>49.93404166666668</v>
+      </c>
+      <c r="W17">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/output/teste/df_split5.xlsx
+++ b/output/teste/df_split5.xlsx
@@ -513,37 +513,37 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>165.1488800499209</v>
+        <v>334.7633794933903</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="G2">
-        <v>247.7233200748814</v>
+        <v>502.1450692400854</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -579,42 +579,42 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>109.395</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>130.2933375268219</v>
+        <v>286.7480913238156</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0138889</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0277778</v>
       </c>
       <c r="G3">
-        <v>195.4400062902328</v>
+        <v>430.1221369857234</v>
       </c>
       <c r="H3">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="I3">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K3">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="L3">
         <v>500</v>
@@ -647,21 +647,21 @@
         <v>0.12</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>59.89148611111113</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>49.33500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>103.6774555661557</v>
+        <v>262.4045378156197</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>155.5161833492336</v>
+        <v>393.6068067234295</v>
       </c>
       <c r="H4">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I4">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="J4">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="K4">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -718,7 +718,7 @@
         <v>0.12</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>54.11648611111113</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -726,13 +726,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>97.78916096758275</v>
+        <v>309.1354664251031</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>146.6837414513741</v>
+        <v>463.7031996376547</v>
       </c>
       <c r="H5">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I5">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J5">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K5">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>94.78573553475324</v>
+        <v>384.636049180636</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>142.1786033021299</v>
+        <v>576.954073770954</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K6">
         <v>0.39</v>
@@ -860,7 +860,7 @@
         <v>0.12</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>71.51084722222224</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -868,13 +868,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>98.71785172641819</v>
+        <v>433.5207499755035</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>148.0767775896273</v>
+        <v>650.2811249632553</v>
       </c>
       <c r="H7">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I7">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="J7">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="K7">
         <v>0.33</v>
@@ -931,7 +931,7 @@
         <v>0.12</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>30.25000000000002</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -939,13 +939,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>130.7873219730109</v>
+        <v>393.8044005019047</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -957,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>196.1809829595164</v>
+        <v>590.7066007528571</v>
       </c>
       <c r="H8">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I8">
         <v>0.49</v>
       </c>
       <c r="J8">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="K8">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="L8">
         <v>500</v>
@@ -1002,21 +1002,21 @@
         <v>0.12</v>
       </c>
       <c r="V8">
-        <v>91.43994444444448</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>23.15744444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>201.8420447128433</v>
+        <v>333.3011855326704</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>302.7630670692649</v>
+        <v>499.9517782990056</v>
       </c>
       <c r="H9">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I9">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
         <v>0.19</v>
       </c>
       <c r="K9">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="L9">
         <v>500</v>
@@ -1073,45 +1073,45 @@
         <v>0.12</v>
       </c>
       <c r="V9">
-        <v>89.48500000000003</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>122.4135000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>294.8296768634683</v>
+        <v>282.2034344188766</v>
       </c>
       <c r="D10">
-        <v>0.00277778</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.00277778</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.00555556</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>442.2445152952025</v>
+        <v>423.3051516283149</v>
       </c>
       <c r="H10">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I10">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="J10">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K10">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="L10">
         <v>500</v>
@@ -1144,7 +1144,7 @@
         <v>0.12</v>
       </c>
       <c r="V10">
-        <v>38.11500000000002</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1152,37 +1152,37 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>349.0296502993302</v>
+        <v>208.1255268683671</v>
       </c>
       <c r="D11">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0138889</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0277778</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>523.5444754489954</v>
+        <v>312.1882903025506</v>
       </c>
       <c r="H11">
+        <v>0.32</v>
+      </c>
+      <c r="I11">
+        <v>0.45</v>
+      </c>
+      <c r="J11">
+        <v>0.18</v>
+      </c>
+      <c r="K11">
         <v>0.39</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0.15</v>
-      </c>
-      <c r="K11">
-        <v>0.4</v>
       </c>
       <c r="L11">
         <v>500</v>
@@ -1215,7 +1215,7 @@
         <v>0.12</v>
       </c>
       <c r="V11">
-        <v>20.66350000000001</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1223,37 +1223,37 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>364.1653337305623</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="D12">
-        <v>0.03055558</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03055558</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.06111116</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>546.2480005958435</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="H12">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="J12">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="L12">
         <v>500</v>
@@ -1286,45 +1286,45 @@
         <v>0.12</v>
       </c>
       <c r="V12">
-        <v>42.35</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>52.40552777777779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>381.7906987705871</v>
+        <v>130.2933375268219</v>
       </c>
       <c r="D13">
-        <v>0.05833338</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05833338</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.11666676</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>572.6860481558806</v>
+        <v>195.4400062902328</v>
       </c>
       <c r="H13">
         <v>0.37</v>
       </c>
       <c r="I13">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="J13">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="L13">
         <v>500</v>
@@ -1357,45 +1357,45 @@
         <v>0.12</v>
       </c>
       <c r="V13">
-        <v>69.46500000000002</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>65.41700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>410.3627591381613</v>
+        <v>103.6774555661557</v>
       </c>
       <c r="D14">
-        <v>0.07777784</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07777784</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.15555568</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>615.5441387072419</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I14">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="J14">
         <v>0.19</v>
       </c>
       <c r="K14">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="L14">
         <v>500</v>
@@ -1428,42 +1428,42 @@
         <v>0.12</v>
       </c>
       <c r="V14">
-        <v>66.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>34.73616666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="1">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>408.4460994869478</v>
+        <v>97.78916096758275</v>
       </c>
       <c r="D15">
-        <v>0.07222228</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07222228</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.14444456</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>612.6691492304217</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="H15">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I15">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="J15">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K15">
         <v>0.32</v>
@@ -1507,37 +1507,37 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="1">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>377.9573794681603</v>
+        <v>94.78573553475324</v>
       </c>
       <c r="D16">
-        <v>0.0555556</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0555556</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1111112</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>566.9360692022404</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="H16">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J16">
         <v>0.14</v>
       </c>
       <c r="K16">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="L16">
         <v>500</v>
@@ -1573,42 +1573,42 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>111.9891666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>354.1473291618483</v>
+        <v>98.71785172641819</v>
       </c>
       <c r="D17">
-        <v>0.01111112</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01111112</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02222224</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>531.2209937427724</v>
+        <v>148.0767775896273</v>
       </c>
       <c r="H17">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="I17">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="J17">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="K17">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="L17">
         <v>500</v>
@@ -1641,10 +1641,10 @@
         <v>0.12</v>
       </c>
       <c r="V17">
-        <v>49.93404166666668</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
